--- a/medicine/Psychotrope/Maison_comte_Senard/Maison_comte_Senard.xlsx
+++ b/medicine/Psychotrope/Maison_comte_Senard/Maison_comte_Senard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La maison comte Senard est un manoir situé à Aloxe-Corton (Côte-d'Or) en Bourgogne-Franche-Comté.
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le manoir[2] est situé à la sortie ouest du chef-lieu au croisement de la RD 115d (rue de Chaumes ou des grands crus) et de la rue de Planchot[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le manoir est situé à la sortie ouest du chef-lieu au croisement de la RD 115d (rue de Chaumes ou des grands crus) et de la rue de Planchot.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1192 à la Révolution, une partie du domaine d'Aloxe-Corton appartient à l'abbaye Sainte-Marguerite de Bouilland qui y possède grange, maison, cuverie, cave, cour et jardin. Louis-Joseph Vuillier-Verry en devint propriétaire vers 1835 et remanie les bâtiments. L'ensemble est racheté en 1882 par Jules Senard qui fut bâtonnier de Paris et ministre de l'intérieur ; il en poursuit la réhabilitation[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1192 à la Révolution, une partie du domaine d'Aloxe-Corton appartient à l'abbaye Sainte-Marguerite de Bouilland qui y possède grange, maison, cuverie, cave, cour et jardin. Louis-Joseph Vuillier-Verry en devint propriétaire vers 1835 et remanie les bâtiments. L'ensemble est racheté en 1882 par Jules Senard qui fut bâtonnier de Paris et ministre de l'intérieur ; il en poursuit la réhabilitation.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le petit bâtiment dit « le Pavillon » ou « la Tour » reste le seul vestige des dépendances de l'ancienne abbaye de Bouilland. La maison, parallèle à la rue, comprend un rez-de-chaussée surélevé et un étage de comble avec toit à longs-pans couvert de tuiles mécaniques. Un escalier droit parallèle à la façade sur le pignon est, menant au rez-de-chaussée surélevé. Une porte rectangulaire sous la marche palière de l'escalier donne accès au sous-sol[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le petit bâtiment dit « le Pavillon » ou « la Tour » reste le seul vestige des dépendances de l'ancienne abbaye de Bouilland. La maison, parallèle à la rue, comprend un rez-de-chaussée surélevé et un étage de comble avec toit à longs-pans couvert de tuiles mécaniques. Un escalier droit parallèle à la façade sur le pignon est, menant au rez-de-chaussée surélevé. Une porte rectangulaire sous la marche palière de l'escalier donne accès au sous-sol.
 </t>
         </is>
       </c>
